--- a/Testdata/Non_Oncology/Templates/SLRReport_SourceData/NonOnco_Expected_TestData_with_filters.xlsx
+++ b/Testdata/Non_Oncology/Templates/SLRReport_SourceData/NonOnco_Expected_TestData_with_filters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\Templates\SLRReport_SourceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C362FA-B14C-4A3B-86D5-95E364804D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595E2FEE-EF8E-42AA-A311-6FCCFC307D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42E3DA3A-6242-489E-932E-A04031FCD123}"/>
   </bookViews>
@@ -83,12 +83,6 @@
     <t>Inclusion &amp; Exclusion Criteria</t>
   </si>
   <si>
-    <t>Sub-population</t>
-  </si>
-  <si>
-    <t>Prior Therapy Group</t>
-  </si>
-  <si>
     <t>Add Variables for Study Characteristics</t>
   </si>
   <si>
@@ -546,6 +540,12 @@
   </si>
   <si>
     <t>13</t>
+  </si>
+  <si>
+    <t>Population filter 1</t>
+  </si>
+  <si>
+    <t>Population filter 2</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1057,7 @@
   <dimension ref="A1:DU5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1109,711 +1109,711 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AN1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AO1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="BG1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="BL1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BM1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="BN1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="BP1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="BQ1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="BR1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="BS1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="BT1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="BU1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AU1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BV1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="BW1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BX1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BY1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BZ1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="CA1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="CB1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="CC1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="CD1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="CE1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="CF1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="CG1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="CH1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="CI1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="CJ1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="CK1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="CL1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="CM1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="CN1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="CO1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="CP1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="CQ1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CR1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="CS1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="CT1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="CU1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="CW1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="CX1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="CY1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="CZ1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="DA1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="DB1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="DC1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="DD1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="DE1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="DF1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="DG1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="DH1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="DI1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="BF1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="BG1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BH1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="BI1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="BJ1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="BK1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="BL1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="BM1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="BN1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="BO1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="BP1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="BQ1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="BR1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="BS1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="BT1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="BU1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="BV1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="BW1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="BX1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BY1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BZ1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="CA1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="CB1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="CC1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="CD1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="CE1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="CF1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="CG1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="CH1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="CI1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="CJ1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="CK1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="CL1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="CM1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="CN1" s="6" t="s">
+      <c r="DJ1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="CO1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="CP1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="CQ1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="CR1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="CS1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="CU1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="CV1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="CW1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="CX1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="CY1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="CZ1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="DA1" s="7" t="s">
+      <c r="DK1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="DB1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="DC1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="DD1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="DE1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="DF1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="DG1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="DH1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="DI1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="DJ1" s="7" t="s">
+      <c r="DL1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="DM1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="DK1" s="7" t="s">
+      <c r="DN1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="DO1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="DL1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="DM1" s="8" t="s">
+      <c r="DP1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="DN1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="DO1" s="9" t="s">
+      <c r="DQ1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="DP1" s="9" t="s">
+      <c r="DR1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="DQ1" s="9" t="s">
+      <c r="DS1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="DR1" s="9" t="s">
+      <c r="DT1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="DS1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="DT1" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="DU1" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q2" s="11" t="s">
+      <c r="U2" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="T2" s="11" t="s">
+      <c r="V2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W2" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="X2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="V2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="W2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="Z2" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="AB2" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AD2" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AF2" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AH2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AI2" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AJ2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AK2" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AL2" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AM2" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="AL2" s="11" t="s">
+      <c r="AN2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="AM2" s="11" t="s">
+      <c r="AP2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR2" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AN2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ2" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR2" s="11" t="s">
+      <c r="AS2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AS2" s="11" t="s">
+      <c r="BD2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE2" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="BF2" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="BG2" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BJ2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="BL2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BM2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP2" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="BQ2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BR2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BS2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="BT2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV2" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BW2" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BX2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY2" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB2" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH2" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="CI2" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ2" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="CK2" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="CL2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="CM2" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="CN2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CP2" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="CQ2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CR2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CS2" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="CT2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU2" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="CV2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CW2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CX2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="CY2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CZ2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="DA2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB2" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="AU2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV2" s="10" t="s">
+      <c r="DC2" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="DD2" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="DE2" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="DF2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="DG2" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="AW2" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AY2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="BB2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="BD2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE2" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="BF2" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG2" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="BH2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI2" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="BJ2" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="BK2" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="BL2" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM2" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO2" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="BP2" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="BQ2" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="BR2" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="BS2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="BT2" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="BU2" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="BV2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="BW2" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="BX2" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="BY2" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ2" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="CA2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="CB2" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="CC2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="CD2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="CE2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="CF2" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="CG2" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="CH2" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="CI2" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="CJ2" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="CK2" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="CL2" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="CM2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="CN2" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="CO2" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="CP2" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="CQ2" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="CR2" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="CS2" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="CT2" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="CU2" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="CV2" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="CW2" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="CX2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="CY2" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="CZ2" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="DA2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="DB2" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="DC2" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="DD2" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="DE2" s="10" t="s">
+      <c r="DH2" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="DF2" s="10" t="s">
+      <c r="DI2" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="DG2" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="DH2" s="10" t="s">
+      <c r="DJ2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DK2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="DL2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="DM2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="DI2" s="10" t="s">
+      <c r="DN2" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="DJ2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="DK2" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="DL2" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="DM2" s="10" t="s">
+      <c r="DO2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="DP2" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="DN2" s="11" t="s">
+      <c r="DQ2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DR2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DS2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DT2" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="DO2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="DP2" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="DQ2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="DR2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="DS2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="DT2" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="DU2" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1835,627 +1835,627 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Z3" s="11"/>
       <c r="AA3" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AB3" s="11"/>
       <c r="AC3" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AD3" s="11"/>
       <c r="AE3" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AF3" s="11"/>
       <c r="AG3" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AH3" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AI3" s="11"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AL3" s="11"/>
       <c r="AM3" s="11"/>
       <c r="AN3" s="11"/>
       <c r="AO3" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AP3" s="11"/>
       <c r="AQ3" s="11"/>
       <c r="AR3" s="11"/>
       <c r="AS3" s="11"/>
       <c r="AT3" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AU3" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AV3" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AW3" s="11"/>
       <c r="AX3" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AY3" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AZ3" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BA3" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BB3" s="11"/>
       <c r="BC3" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="BD3" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BE3" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="BF3" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="BG3" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="BH3" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BI3" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BJ3" s="11"/>
       <c r="BK3" s="11"/>
       <c r="BL3" s="11"/>
       <c r="BM3" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BN3" s="11"/>
       <c r="BO3" s="11"/>
       <c r="BP3" s="11"/>
       <c r="BQ3" s="11"/>
       <c r="BR3" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BS3" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="BT3" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BU3" s="11"/>
       <c r="BV3" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BW3" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="BX3" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY3" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="BZ3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB3" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="BX3" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="BY3" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="BZ3" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="CA3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="CB3" s="10" t="s">
-        <v>154</v>
-      </c>
       <c r="CC3" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="CD3" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="CE3" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="CF3" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CG3" s="11"/>
       <c r="CH3" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CI3" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CJ3" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CK3" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CL3" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CM3" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CN3" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CO3" s="11"/>
       <c r="CP3" s="11"/>
       <c r="CQ3" s="11"/>
       <c r="CR3" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CS3" s="11"/>
       <c r="CT3" s="11"/>
       <c r="CU3" s="11"/>
       <c r="CV3" s="11"/>
       <c r="CW3" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CX3" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CY3" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CZ3" s="11"/>
       <c r="DA3" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="DB3" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="DC3" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="DD3" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="DE3" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="DF3" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="DG3" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="DH3" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="DI3" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="DJ3" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="DK3" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="DL3" s="11"/>
       <c r="DM3" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="DN3" s="11"/>
       <c r="DO3" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="DP3" s="11"/>
       <c r="DQ3" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="DR3" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="DS3" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="DT3" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="DU3" s="11"/>
     </row>
     <row r="4" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="J4" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB4" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="W4" s="10" t="s">
+      <c r="AC4" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI4" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ4" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM4" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR4" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX4" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="AY4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ4" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="BA4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC4" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE4" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="BG4" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH4" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="BI4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BJ4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK4" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="BL4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BM4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP4" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="BQ4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BR4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BS4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="Z4" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA4" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB4" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD4" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE4" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF4" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG4" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH4" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI4" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ4" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK4" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL4" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AM4" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN4" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO4" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP4" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ4" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR4" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS4" s="11" t="s">
+      <c r="BT4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV4" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BW4" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BX4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY4" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB4" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH4" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="CI4" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ4" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="CK4" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="CL4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="CM4" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="CN4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CP4" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="CQ4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CR4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CS4" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="CT4" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU4" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="CV4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CW4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CX4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="CY4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CZ4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="DA4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB4" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="AT4" s="10" t="s">
+      <c r="DC4" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="DD4" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="DE4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="DF4" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="DG4" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="AU4" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV4" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW4" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX4" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="AY4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AZ4" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="BA4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="BB4" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC4" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="BD4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE4" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="BF4" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG4" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="BH4" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="BI4" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="BJ4" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="BK4" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="BL4" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="BM4" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="BN4" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO4" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="BP4" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="BQ4" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="BR4" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="BS4" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="BT4" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="BU4" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="BV4" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="BW4" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="BX4" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="BY4" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ4" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="CA4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="CB4" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="CC4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="CD4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="CE4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="CF4" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="CG4" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="CH4" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="CI4" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="CJ4" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="CK4" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="CL4" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="CM4" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="CN4" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="CO4" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="CP4" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="CQ4" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="CR4" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="CS4" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="CT4" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="CU4" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="CV4" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="CW4" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="CX4" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="CY4" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="CZ4" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="DA4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="DB4" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="DC4" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="DD4" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="DE4" s="10" t="s">
+      <c r="DH4" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="DF4" s="10" t="s">
+      <c r="DI4" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="DG4" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="DH4" s="10" t="s">
+      <c r="DJ4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DK4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="DL4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="DM4" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="DI4" s="10" t="s">
+      <c r="DN4" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="DJ4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="DK4" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="DL4" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="DM4" s="10" t="s">
+      <c r="DO4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="DP4" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="DN4" s="11" t="s">
+      <c r="DQ4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DR4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DS4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DT4" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="DO4" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="DP4" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="DQ4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="DR4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="DS4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="DT4" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="DU4" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2477,294 +2477,302 @@
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
       <c r="V5" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Z5" s="11"/>
       <c r="AA5" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AB5" s="11"/>
       <c r="AC5" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AD5" s="11"/>
       <c r="AE5" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AF5" s="11"/>
       <c r="AG5" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AH5" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AI5" s="11"/>
       <c r="AJ5" s="11"/>
       <c r="AK5" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AL5" s="11"/>
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
       <c r="AO5" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AP5" s="11"/>
       <c r="AQ5" s="11"/>
       <c r="AR5" s="11"/>
       <c r="AS5" s="11"/>
       <c r="AT5" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AU5" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AV5" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AW5" s="11"/>
       <c r="AX5" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AY5" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AZ5" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BA5" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BB5" s="11"/>
       <c r="BC5" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="BD5" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BE5" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="BF5" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="BG5" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="BH5" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BI5" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BJ5" s="11"/>
       <c r="BK5" s="11"/>
       <c r="BL5" s="11"/>
       <c r="BM5" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BN5" s="11"/>
       <c r="BO5" s="11"/>
       <c r="BP5" s="11"/>
       <c r="BQ5" s="11"/>
       <c r="BR5" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BS5" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="BT5" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BU5" s="11"/>
       <c r="BV5" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BW5" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="BX5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY5" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="BZ5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB5" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="BX5" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="BY5" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="BZ5" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="CA5" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="CB5" s="10" t="s">
-        <v>154</v>
-      </c>
       <c r="CC5" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="CD5" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="CE5" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="CF5" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CG5" s="11"/>
       <c r="CH5" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CI5" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CJ5" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CK5" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CL5" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CM5" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CN5" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CO5" s="11"/>
       <c r="CP5" s="11"/>
       <c r="CQ5" s="11"/>
       <c r="CR5" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CS5" s="11"/>
       <c r="CT5" s="11"/>
       <c r="CU5" s="11"/>
       <c r="CV5" s="11"/>
       <c r="CW5" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CX5" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CY5" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CZ5" s="11"/>
       <c r="DA5" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="DB5" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="DC5" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="DD5" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="DE5" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="DF5" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="DG5" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="DH5" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="DI5" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="DJ5" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="DK5" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="DL5" s="11"/>
       <c r="DM5" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="DN5" s="11"/>
       <c r="DO5" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="DP5" s="11"/>
       <c r="DQ5" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="DR5" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="DS5" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="DT5" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="DU5" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="BN2:BN3"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="BP2:BP3"/>
-    <mergeCell ref="BQ2:BQ3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="CV4:CV5"/>
+    <mergeCell ref="CZ4:CZ5"/>
+    <mergeCell ref="DL4:DL5"/>
+    <mergeCell ref="DN4:DN5"/>
+    <mergeCell ref="DP4:DP5"/>
+    <mergeCell ref="DU4:DU5"/>
+    <mergeCell ref="CO4:CO5"/>
+    <mergeCell ref="CP4:CP5"/>
+    <mergeCell ref="CQ4:CQ5"/>
+    <mergeCell ref="CS4:CS5"/>
+    <mergeCell ref="CT4:CT5"/>
+    <mergeCell ref="CU4:CU5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="CG4:CG5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="DP2:DP3"/>
     <mergeCell ref="DU2:DU3"/>
     <mergeCell ref="A4:A5"/>
@@ -2789,54 +2797,46 @@
     <mergeCell ref="CS2:CS3"/>
     <mergeCell ref="BK2:BK3"/>
     <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="CG4:CG5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="CV4:CV5"/>
-    <mergeCell ref="CZ4:CZ5"/>
-    <mergeCell ref="DL4:DL5"/>
-    <mergeCell ref="DN4:DN5"/>
-    <mergeCell ref="DP4:DP5"/>
-    <mergeCell ref="DU4:DU5"/>
-    <mergeCell ref="CO4:CO5"/>
-    <mergeCell ref="CP4:CP5"/>
-    <mergeCell ref="CQ4:CQ5"/>
-    <mergeCell ref="CS4:CS5"/>
-    <mergeCell ref="CT4:CT5"/>
-    <mergeCell ref="CU4:CU5"/>
+    <mergeCell ref="BN2:BN3"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BP2:BP3"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{AD51D2A8-E2AF-4929-9DD4-5432D8F71209}"/>

--- a/Testdata/Non_Oncology/Templates/SLRReport_SourceData/NonOnco_Expected_TestData_with_filters.xlsx
+++ b/Testdata/Non_Oncology/Templates/SLRReport_SourceData/NonOnco_Expected_TestData_with_filters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\Templates\SLRReport_SourceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595E2FEE-EF8E-42AA-A311-6FCCFC307D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712C49F9-B764-4A5B-927C-B0A0C32951D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42E3DA3A-6242-489E-932E-A04031FCD123}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="174">
   <si>
     <t>LiveSLR Study ID</t>
   </si>
@@ -546,6 +546,18 @@
   </si>
   <si>
     <t>Population filter 2</t>
+  </si>
+  <si>
+    <t>Uncertainty Type</t>
+  </si>
+  <si>
+    <t>Uncertainty Value Low</t>
+  </si>
+  <si>
+    <t>Uncertainty Value High</t>
+  </si>
+  <si>
+    <t>95% CI</t>
   </si>
 </sst>
 </file>
@@ -1056,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE971CE-9AC8-4858-A9A8-45053D3F6E72}">
   <dimension ref="A1:DU5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q1"/>
+    <sheetView tabSelected="1" topLeftCell="CP1" workbookViewId="0">
+      <selection activeCell="DB2" sqref="DB2:DB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1379,13 +1391,13 @@
         <v>62</v>
       </c>
       <c r="DB1" s="7" t="s">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="DC1" s="7" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="DD1" s="7" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="DE1" s="7" t="s">
         <v>44</v>
@@ -1756,7 +1768,7 @@
         <v>87</v>
       </c>
       <c r="DB2" s="10" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="DC2" s="10" t="s">
         <v>130</v>
@@ -2029,7 +2041,7 @@
         <v>87</v>
       </c>
       <c r="DB3" s="10" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="DC3" s="10" t="s">
         <v>131</v>
@@ -2398,7 +2410,7 @@
         <v>87</v>
       </c>
       <c r="DB4" s="10" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="DC4" s="10" t="s">
         <v>130</v>
@@ -2671,7 +2683,7 @@
         <v>87</v>
       </c>
       <c r="DB5" s="10" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="DC5" s="10" t="s">
         <v>131</v>

--- a/Testdata/Non_Oncology/Templates/SLRReport_SourceData/NonOnco_Expected_TestData_with_filters.xlsx
+++ b/Testdata/Non_Oncology/Templates/SLRReport_SourceData/NonOnco_Expected_TestData_with_filters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\Templates\SLRReport_SourceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712C49F9-B764-4A5B-927C-B0A0C32951D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB02226-DC5A-4D33-9218-1F9CE35FD5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42E3DA3A-6242-489E-932E-A04031FCD123}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="181">
   <si>
     <t>LiveSLR Study ID</t>
   </si>
@@ -558,6 +558,27 @@
   </si>
   <si>
     <t>95% CI</t>
+  </si>
+  <si>
+    <t>Update_Motoya_PLOS_2019</t>
+  </si>
+  <si>
+    <t>Update_Nagahori_Digestion_2019</t>
+  </si>
+  <si>
+    <t>16,17</t>
+  </si>
+  <si>
+    <t>Prospective Multicenter</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Update_Kobayashi_JG_2016</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -1066,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE971CE-9AC8-4858-A9A8-45053D3F6E72}">
-  <dimension ref="A1:DU5"/>
+  <dimension ref="A1:DU9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CP1" workbookViewId="0">
-      <selection activeCell="DB2" sqref="DB2:DB5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1451,7 +1472,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>72</v>
       </c>
@@ -1828,7 +1849,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -2093,7 +2114,7 @@
       </c>
       <c r="DU3" s="11"/>
     </row>
-    <row r="4" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>156</v>
       </c>
@@ -2470,7 +2491,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2735,56 +2756,1444 @@
       </c>
       <c r="DU5" s="11"/>
     </row>
+    <row r="6" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC6" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD6" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF6" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH6" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI6" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK6" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM6" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO6" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ6" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR6" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC6" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE6" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="BG6" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BJ6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK6" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="BL6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BM6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO6" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP6" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="BQ6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BR6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BS6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="BT6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BW6" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BX6" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY6" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ6" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB6" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH6" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="CI6" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ6" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="CK6" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="CL6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="CM6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="CN6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CP6" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="CQ6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CR6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CS6" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="CT6" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU6" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="CV6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CW6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CX6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="CY6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CZ6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="DA6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB6" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="DC6" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="DD6" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="DE6" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="DF6" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="DG6" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DH6" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="DI6" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="DJ6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DK6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="DL6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="DM6" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="DN6" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="DO6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="DP6" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="DQ6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DR6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DS6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DT6" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DU6" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH7" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB7" s="11"/>
+      <c r="BC7" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE7" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF7" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG7" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BJ7" s="11"/>
+      <c r="BK7" s="11"/>
+      <c r="BL7" s="11"/>
+      <c r="BM7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN7" s="11"/>
+      <c r="BO7" s="11"/>
+      <c r="BP7" s="11"/>
+      <c r="BQ7" s="11"/>
+      <c r="BR7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BS7" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="BT7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU7" s="11"/>
+      <c r="BV7" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BW7" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="BX7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY7" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="BZ7" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB7" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="CC7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG7" s="11"/>
+      <c r="CH7" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="CI7" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="CJ7" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="CK7" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="CL7" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="CM7" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="CN7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO7" s="11"/>
+      <c r="CP7" s="11"/>
+      <c r="CQ7" s="11"/>
+      <c r="CR7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CS7" s="11"/>
+      <c r="CT7" s="11"/>
+      <c r="CU7" s="11"/>
+      <c r="CV7" s="11"/>
+      <c r="CW7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CX7" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="CY7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CZ7" s="11"/>
+      <c r="DA7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB7" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="DC7" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="DD7" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="DE7" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="DF7" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="DG7" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="DH7" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="DI7" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="DJ7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DK7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="DL7" s="11"/>
+      <c r="DM7" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="DN7" s="11"/>
+      <c r="DO7" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="DP7" s="11"/>
+      <c r="DQ7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DR7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DS7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DT7" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="DU7" s="11"/>
+    </row>
+    <row r="8" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD8" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF8" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG8" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH8" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ8" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK8" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM8" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO8" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ8" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX8" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ8" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC8" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE8" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="BG8" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH8" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="BI8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BJ8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK8" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="BL8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BM8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO8" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP8" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="BQ8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BR8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BS8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="BT8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV8" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BW8" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BX8" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="BY8" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ8" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH8" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="CI8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ8" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="CK8" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="CL8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="CM8" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="CN8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CP8" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="CQ8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CR8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CS8" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="CT8" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU8" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="CV8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CW8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CX8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="CY8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CZ8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="DA8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB8" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="DC8" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="DD8" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="DE8" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="DF8" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="DG8" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DH8" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="DI8" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="DJ8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DK8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="DL8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="DM8" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="DN8" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="DO8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="DP8" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="DQ8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DR8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DS8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DT8" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DU8" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH9" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ9" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB9" s="11"/>
+      <c r="BC9" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE9" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF9" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG9" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BJ9" s="11"/>
+      <c r="BK9" s="11"/>
+      <c r="BL9" s="11"/>
+      <c r="BM9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN9" s="11"/>
+      <c r="BO9" s="11"/>
+      <c r="BP9" s="11"/>
+      <c r="BQ9" s="11"/>
+      <c r="BR9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BS9" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="BT9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU9" s="11"/>
+      <c r="BV9" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BW9" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="BX9" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY9" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="BZ9" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="CA9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB9" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="CC9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG9" s="11"/>
+      <c r="CH9" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="CI9" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="CJ9" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="CK9" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="CL9" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="CM9" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="CN9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO9" s="11"/>
+      <c r="CP9" s="11"/>
+      <c r="CQ9" s="11"/>
+      <c r="CR9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CS9" s="11"/>
+      <c r="CT9" s="11"/>
+      <c r="CU9" s="11"/>
+      <c r="CV9" s="11"/>
+      <c r="CW9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CX9" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="CY9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CZ9" s="11"/>
+      <c r="DA9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB9" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="DC9" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="DD9" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="DE9" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="DF9" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="DG9" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="DH9" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="DI9" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="DJ9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DK9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="DL9" s="11"/>
+      <c r="DM9" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="DN9" s="11"/>
+      <c r="DO9" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="DP9" s="11"/>
+      <c r="DQ9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DR9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DS9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DT9" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="DU9" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="112">
-    <mergeCell ref="CV4:CV5"/>
-    <mergeCell ref="CZ4:CZ5"/>
-    <mergeCell ref="DL4:DL5"/>
-    <mergeCell ref="DN4:DN5"/>
-    <mergeCell ref="DP4:DP5"/>
-    <mergeCell ref="DU4:DU5"/>
-    <mergeCell ref="CO4:CO5"/>
-    <mergeCell ref="CP4:CP5"/>
-    <mergeCell ref="CQ4:CQ5"/>
-    <mergeCell ref="CS4:CS5"/>
-    <mergeCell ref="CT4:CT5"/>
-    <mergeCell ref="CU4:CU5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="CG4:CG5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
+  <mergeCells count="224">
+    <mergeCell ref="CU8:CU9"/>
+    <mergeCell ref="CV8:CV9"/>
+    <mergeCell ref="CZ8:CZ9"/>
+    <mergeCell ref="DL8:DL9"/>
+    <mergeCell ref="DN8:DN9"/>
+    <mergeCell ref="DP8:DP9"/>
+    <mergeCell ref="DU8:DU9"/>
+    <mergeCell ref="BP8:BP9"/>
+    <mergeCell ref="BQ8:BQ9"/>
+    <mergeCell ref="BU8:BU9"/>
+    <mergeCell ref="CG8:CG9"/>
+    <mergeCell ref="CO8:CO9"/>
+    <mergeCell ref="CP8:CP9"/>
+    <mergeCell ref="CQ8:CQ9"/>
+    <mergeCell ref="CS8:CS9"/>
+    <mergeCell ref="CT8:CT9"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="BB8:BB9"/>
+    <mergeCell ref="BJ8:BJ9"/>
+    <mergeCell ref="BK8:BK9"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BN8:BN9"/>
+    <mergeCell ref="BO8:BO9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="DP6:DP7"/>
+    <mergeCell ref="DU6:DU7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="CP6:CP7"/>
+    <mergeCell ref="CQ6:CQ7"/>
+    <mergeCell ref="CS6:CS7"/>
+    <mergeCell ref="CT6:CT7"/>
+    <mergeCell ref="CU6:CU7"/>
+    <mergeCell ref="CV6:CV7"/>
+    <mergeCell ref="CZ6:CZ7"/>
+    <mergeCell ref="DL6:DL7"/>
+    <mergeCell ref="DN6:DN7"/>
+    <mergeCell ref="BK6:BK7"/>
+    <mergeCell ref="BL6:BL7"/>
+    <mergeCell ref="BN6:BN7"/>
+    <mergeCell ref="BO6:BO7"/>
+    <mergeCell ref="BP6:BP7"/>
+    <mergeCell ref="BQ6:BQ7"/>
+    <mergeCell ref="BU6:BU7"/>
+    <mergeCell ref="CG6:CG7"/>
+    <mergeCell ref="CO6:CO7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AR6:AR7"/>
+    <mergeCell ref="AS6:AS7"/>
+    <mergeCell ref="AW6:AW7"/>
+    <mergeCell ref="BB6:BB7"/>
+    <mergeCell ref="BJ6:BJ7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="BN2:BN3"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BP2:BP3"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BJ2:BJ3"/>
     <mergeCell ref="DP2:DP3"/>
     <mergeCell ref="DU2:DU3"/>
     <mergeCell ref="A4:A5"/>
@@ -2809,50 +4218,60 @@
     <mergeCell ref="CS2:CS3"/>
     <mergeCell ref="BK2:BK3"/>
     <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="BN2:BN3"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="BP2:BP3"/>
-    <mergeCell ref="BQ2:BQ3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="CG4:CG5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="CV4:CV5"/>
+    <mergeCell ref="CZ4:CZ5"/>
+    <mergeCell ref="DL4:DL5"/>
+    <mergeCell ref="DN4:DN5"/>
+    <mergeCell ref="DP4:DP5"/>
+    <mergeCell ref="DU4:DU5"/>
+    <mergeCell ref="CO4:CO5"/>
+    <mergeCell ref="CP4:CP5"/>
+    <mergeCell ref="CQ4:CQ5"/>
+    <mergeCell ref="CS4:CS5"/>
+    <mergeCell ref="CT4:CT5"/>
+    <mergeCell ref="CU4:CU5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{AD51D2A8-E2AF-4929-9DD4-5432D8F71209}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{1DA6FF3F-706D-45C5-BC89-2680E6B907C9}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{576E9C39-BFA5-4024-9577-CB4F2808683F}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{43BCD170-DCE2-413B-B342-EB03CA24955E}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{179CF3EA-595E-48AD-A33D-23E346895EB1}"/>
+    <hyperlink ref="H8" r:id="rId4" xr:uid="{1B0FED29-A860-4F99-A888-0354A760965C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testdata/Non_Oncology/Templates/SLRReport_SourceData/NonOnco_Expected_TestData_with_filters.xlsx
+++ b/Testdata/Non_Oncology/Templates/SLRReport_SourceData/NonOnco_Expected_TestData_with_filters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\Templates\SLRReport_SourceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB02226-DC5A-4D33-9218-1F9CE35FD5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46186187-0CDB-4F6F-810F-444C87A12A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42E3DA3A-6242-489E-932E-A04031FCD123}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="183">
   <si>
     <t>LiveSLR Study ID</t>
   </si>
@@ -579,6 +579,12 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>Follow-up Period</t>
+  </si>
+  <si>
+    <t>Follow-up Period Unit</t>
   </si>
 </sst>
 </file>
@@ -1087,15 +1093,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE971CE-9AC8-4858-A9A8-45053D3F6E72}">
-  <dimension ref="A1:DU9"/>
+  <dimension ref="A1:DW9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:127" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1157,322 +1163,328 @@
         <v>16</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BL1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="BK1" s="6" t="s">
+      <c r="BM1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="BL1" s="6" t="s">
+      <c r="BN1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="BM1" s="6" t="s">
+      <c r="BO1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="BN1" s="6" t="s">
+      <c r="BP1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="BO1" s="6" t="s">
+      <c r="BQ1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BP1" s="6" t="s">
+      <c r="BR1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="BQ1" s="6" t="s">
+      <c r="BS1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="BR1" s="6" t="s">
+      <c r="BT1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="BS1" s="6" t="s">
+      <c r="BU1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="BT1" s="6" t="s">
+      <c r="BV1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="BU1" s="6" t="s">
+      <c r="BW1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="BV1" s="6" t="s">
+      <c r="BX1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BW1" s="6" t="s">
+      <c r="BY1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BX1" s="6" t="s">
+      <c r="BZ1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BY1" s="6" t="s">
+      <c r="CA1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BZ1" s="6" t="s">
+      <c r="CB1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="CA1" s="6" t="s">
+      <c r="CC1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="CB1" s="6" t="s">
+      <c r="CD1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="CC1" s="6" t="s">
+      <c r="CE1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="CD1" s="6" t="s">
+      <c r="CF1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="CE1" s="6" t="s">
+      <c r="CG1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="CF1" s="6" t="s">
+      <c r="CH1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="CG1" s="6" t="s">
+      <c r="CI1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="CH1" s="6" t="s">
+      <c r="CJ1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="CI1" s="6" t="s">
+      <c r="CK1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="CJ1" s="6" t="s">
+      <c r="CL1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="CK1" s="6" t="s">
+      <c r="CM1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="CL1" s="6" t="s">
+      <c r="CN1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="CM1" s="6" t="s">
+      <c r="CO1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="CN1" s="6" t="s">
+      <c r="CP1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="CO1" s="6" t="s">
+      <c r="CQ1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="CP1" s="7" t="s">
+      <c r="CR1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="CQ1" s="7" t="s">
+      <c r="CS1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="CR1" s="7" t="s">
+      <c r="CT1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="CS1" s="7" t="s">
+      <c r="CU1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="CT1" s="7" t="s">
+      <c r="CV1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="CU1" s="7" t="s">
+      <c r="CW1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="CV1" s="7" t="s">
+      <c r="CX1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="CW1" s="7" t="s">
+      <c r="CY1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="CX1" s="7" t="s">
+      <c r="CZ1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="CY1" s="7" t="s">
+      <c r="DA1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="CZ1" s="7" t="s">
+      <c r="DB1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="DA1" s="7" t="s">
+      <c r="DC1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="DB1" s="7" t="s">
+      <c r="DD1" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="DC1" s="7" t="s">
+      <c r="DE1" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="DD1" s="7" t="s">
+      <c r="DF1" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="DE1" s="7" t="s">
+      <c r="DG1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="DF1" s="7" t="s">
+      <c r="DH1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="DG1" s="7" t="s">
+      <c r="DI1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="DH1" s="7" t="s">
+      <c r="DJ1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="DI1" s="7" t="s">
+      <c r="DK1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="DJ1" s="7" t="s">
+      <c r="DL1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="DK1" s="7" t="s">
+      <c r="DM1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="DL1" s="7" t="s">
+      <c r="DN1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="DM1" s="8" t="s">
+      <c r="DO1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="DN1" s="8" t="s">
+      <c r="DP1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="DO1" s="9" t="s">
+      <c r="DQ1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="DP1" s="9" t="s">
+      <c r="DR1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="DQ1" s="9" t="s">
+      <c r="DS1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="DR1" s="9" t="s">
+      <c r="DT1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="DS1" s="9" t="s">
+      <c r="DU1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="DT1" s="9" t="s">
+      <c r="DV1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="DU1" s="9" t="s">
+      <c r="DW1" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:127" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>72</v>
       </c>
@@ -1534,97 +1546,97 @@
         <v>88</v>
       </c>
       <c r="U2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="W2" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="V2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="W2" s="10" t="s">
+      <c r="X2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y2" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="AB2" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AD2" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AF2" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AH2" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AK2" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AL2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AK2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="AL2" s="11" t="s">
+      <c r="AN2" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="AM2" s="11" t="s">
+      <c r="AO2" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="AN2" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AP2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="AP2" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ2" s="11" t="s">
+      <c r="AR2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS2" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="AR2" s="11" t="s">
+      <c r="AT2" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AS2" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AU2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AV2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW2" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="AX2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY2" s="10" t="s">
-        <v>87</v>
+        <v>109</v>
+      </c>
+      <c r="AY2" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="AZ2" s="10" t="s">
         <v>87</v>
@@ -1632,224 +1644,230 @@
       <c r="BA2" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="BB2" s="11" t="s">
+      <c r="BB2" s="10" t="s">
         <v>87</v>
       </c>
       <c r="BC2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BD2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE2" s="10" t="s">
+      <c r="BF2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG2" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="BF2" s="10" t="s">
+      <c r="BH2" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="BG2" s="10" t="s">
+      <c r="BI2" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="BH2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ2" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="BK2" s="11" t="s">
+      <c r="BJ2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BL2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BM2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="BL2" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM2" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="BN2" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BO2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BP2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ2" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="BP2" s="11" t="s">
+      <c r="BR2" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="BQ2" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="BR2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BS2" s="10" t="s">
+      <c r="BS2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="BT2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BU2" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="BV2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX2" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="BW2" s="10" t="s">
+      <c r="BY2" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="BX2" s="10" t="s">
+      <c r="BZ2" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="BY2" s="10" t="s">
+      <c r="CA2" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="BZ2" s="10" t="s">
+      <c r="CB2" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="CA2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="CB2" s="10" t="s">
+      <c r="CC2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD2" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="CC2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="CD2" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="CE2" s="10" t="s">
         <v>87</v>
       </c>
       <c r="CF2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CG2" s="11" t="s">
-        <v>109</v>
+        <v>87</v>
+      </c>
+      <c r="CG2" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="CH2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CJ2" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="CI2" s="10" t="s">
+      <c r="CK2" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="CJ2" s="10" t="s">
+      <c r="CL2" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="CK2" s="10" t="s">
+      <c r="CM2" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="CL2" s="10" t="s">
+      <c r="CN2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="CM2" s="10" t="s">
+      <c r="CO2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="CN2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CO2" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="CP2" s="11" t="s">
+      <c r="CP2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CQ2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CR2" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="CQ2" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="CR2" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="CS2" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="CT2" s="11" t="s">
-        <v>129</v>
+        <v>109</v>
+      </c>
+      <c r="CT2" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="CU2" s="11" t="s">
         <v>128</v>
       </c>
       <c r="CV2" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="CW2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CX2" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CW2" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="CX2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CY2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CZ2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="CY2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CZ2" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="DA2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="DB2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="DB2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="DC2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DD2" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="DC2" s="10" t="s">
+      <c r="DE2" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="DD2" s="10" t="s">
+      <c r="DF2" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="DE2" s="10" t="s">
+      <c r="DG2" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="DF2" s="10" t="s">
+      <c r="DH2" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="DG2" s="10" t="s">
+      <c r="DI2" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="DH2" s="10" t="s">
+      <c r="DJ2" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="DI2" s="10" t="s">
+      <c r="DK2" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="DJ2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="DK2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="DL2" s="11" t="s">
-        <v>109</v>
+      <c r="DL2" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="DM2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="DN2" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="DO2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="DN2" s="11" t="s">
+      <c r="DP2" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="DO2" s="10" t="s">
+      <c r="DQ2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="DP2" s="11" t="s">
+      <c r="DR2" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="DQ2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="DR2" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="DS2" s="10" t="s">
         <v>87</v>
       </c>
       <c r="DT2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DU2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DV2" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="DU2" s="11" t="s">
+      <c r="DW2" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:127" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1873,159 +1891,155 @@
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
-      <c r="V3" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="W3" s="10" t="s">
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y3" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="Z3" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="AA3" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="AB3" s="11"/>
       <c r="AC3" s="10" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="AD3" s="11"/>
       <c r="AE3" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF3" s="11"/>
       <c r="AG3" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="AH3" s="10" t="s">
+      <c r="AJ3" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="10" t="s">
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
       <c r="AN3" s="11"/>
-      <c r="AO3" s="10" t="s">
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11"/>
       <c r="AR3" s="11"/>
       <c r="AS3" s="11"/>
-      <c r="AT3" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU3" s="10" t="s">
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW3" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AV3" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW3" s="11"/>
       <c r="AX3" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY3" s="10" t="s">
-        <v>87</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="AY3" s="11"/>
       <c r="AZ3" s="10" t="s">
         <v>87</v>
       </c>
       <c r="BA3" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="BB3" s="11"/>
+      <c r="BB3" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BC3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BD3" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE3" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="BF3" s="10" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="BG3" s="10" t="s">
         <v>148</v>
       </c>
       <c r="BH3" s="10" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="BI3" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="BJ3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK3" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="BL3" s="11"/>
-      <c r="BM3" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="BM3" s="11"/>
       <c r="BN3" s="11"/>
-      <c r="BO3" s="11"/>
+      <c r="BO3" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="BP3" s="11"/>
       <c r="BQ3" s="11"/>
-      <c r="BR3" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BS3" s="10" t="s">
+      <c r="BR3" s="11"/>
+      <c r="BS3" s="11"/>
+      <c r="BT3" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU3" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="BT3" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BU3" s="11"/>
       <c r="BV3" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW3" s="11"/>
+      <c r="BX3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="BW3" s="10" t="s">
+      <c r="BY3" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="BX3" s="10" t="s">
+      <c r="BZ3" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="BY3" s="10" t="s">
+      <c r="CA3" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BZ3" s="10" t="s">
+      <c r="CB3" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="CA3" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="CB3" s="10" t="s">
+      <c r="CC3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD3" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="CC3" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="CD3" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="CE3" s="10" t="s">
         <v>87</v>
       </c>
       <c r="CF3" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CG3" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="CG3" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="CH3" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI3" s="11"/>
+      <c r="CJ3" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="CI3" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="CJ3" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="CK3" s="10" t="s">
         <v>148</v>
       </c>
@@ -2036,49 +2050,49 @@
         <v>148</v>
       </c>
       <c r="CN3" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CO3" s="11"/>
-      <c r="CP3" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="CO3" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="CP3" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="CQ3" s="11"/>
-      <c r="CR3" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="CR3" s="11"/>
       <c r="CS3" s="11"/>
-      <c r="CT3" s="11"/>
+      <c r="CT3" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="CU3" s="11"/>
       <c r="CV3" s="11"/>
-      <c r="CW3" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CX3" s="10" t="s">
+      <c r="CW3" s="11"/>
+      <c r="CX3" s="11"/>
+      <c r="CY3" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CZ3" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="CY3" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CZ3" s="11"/>
       <c r="DA3" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="DB3" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="DB3" s="11"/>
+      <c r="DC3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DD3" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="DC3" s="10" t="s">
+      <c r="DE3" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="DD3" s="10" t="s">
+      <c r="DF3" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="DE3" s="10" t="s">
+      <c r="DG3" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="DF3" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="DG3" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="DH3" s="10" t="s">
         <v>148</v>
       </c>
@@ -2086,35 +2100,41 @@
         <v>148</v>
       </c>
       <c r="DJ3" s="10" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="DK3" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="DL3" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="DL3" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="DM3" s="10" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="DN3" s="11"/>
       <c r="DO3" s="10" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="DP3" s="11"/>
       <c r="DQ3" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="DR3" s="10" t="s">
-        <v>87</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="DR3" s="11"/>
       <c r="DS3" s="10" t="s">
         <v>87</v>
       </c>
       <c r="DT3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DU3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DV3" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="DU3" s="11"/>
+      <c r="DW3" s="11"/>
     </row>
-    <row r="4" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:127" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>156</v>
       </c>
@@ -2176,322 +2196,328 @@
         <v>88</v>
       </c>
       <c r="U4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="W4" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="V4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="W4" s="10" t="s">
+      <c r="X4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y4" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="Z4" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="AA4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="AB4" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AC4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AD4" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AE4" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AF4" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AG4" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AH4" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AG4" s="10" t="s">
+      <c r="AI4" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AH4" s="10" t="s">
+      <c r="AJ4" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="AI4" s="11" t="s">
+      <c r="AK4" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AJ4" s="11" t="s">
+      <c r="AL4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AK4" s="10" t="s">
+      <c r="AM4" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="AL4" s="11" t="s">
+      <c r="AN4" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="AM4" s="11" t="s">
+      <c r="AO4" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="AN4" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO4" s="10" t="s">
+      <c r="AP4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ4" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="AP4" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ4" s="11" t="s">
+      <c r="AR4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS4" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="AR4" s="11" t="s">
+      <c r="AT4" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AS4" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT4" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU4" s="10" t="s">
+      <c r="AU4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AV4" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW4" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="AX4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ4" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="AY4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ4" s="10" t="s">
+      <c r="BA4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB4" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="BA4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BB4" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="BC4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE4" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BD4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE4" s="10" t="s">
+      <c r="BF4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG4" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="BF4" s="10" t="s">
+      <c r="BH4" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="BG4" s="10" t="s">
+      <c r="BI4" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="BH4" s="10" t="s">
+      <c r="BJ4" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="BI4" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ4" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="BK4" s="11" t="s">
+      <c r="BK4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BL4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BM4" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="BL4" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM4" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="BN4" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BO4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BP4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ4" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="BP4" s="11" t="s">
+      <c r="BR4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="BQ4" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="BR4" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BS4" s="10" t="s">
+      <c r="BS4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="BT4" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BU4" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="BV4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX4" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="BW4" s="10" t="s">
+      <c r="BY4" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="BX4" s="10" t="s">
+      <c r="BZ4" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="BY4" s="10" t="s">
+      <c r="CA4" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="BZ4" s="10" t="s">
+      <c r="CB4" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="CA4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="CB4" s="10" t="s">
+      <c r="CC4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD4" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="CC4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="CD4" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="CE4" s="10" t="s">
         <v>87</v>
       </c>
       <c r="CF4" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CG4" s="11" t="s">
-        <v>109</v>
+        <v>87</v>
+      </c>
+      <c r="CG4" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="CH4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CJ4" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="CI4" s="10" t="s">
+      <c r="CK4" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="CJ4" s="10" t="s">
+      <c r="CL4" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="CK4" s="10" t="s">
+      <c r="CM4" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="CL4" s="10" t="s">
+      <c r="CN4" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="CM4" s="10" t="s">
+      <c r="CO4" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="CN4" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CO4" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="CP4" s="11" t="s">
+      <c r="CP4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CQ4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CR4" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="CQ4" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="CR4" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="CS4" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="CT4" s="11" t="s">
-        <v>129</v>
+        <v>109</v>
+      </c>
+      <c r="CT4" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="CU4" s="11" t="s">
         <v>128</v>
       </c>
       <c r="CV4" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="CW4" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CX4" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CW4" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="CX4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CY4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CZ4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="CY4" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CZ4" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="DA4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="DB4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="DB4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="DC4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DD4" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="DC4" s="10" t="s">
+      <c r="DE4" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="DD4" s="10" t="s">
+      <c r="DF4" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="DE4" s="10" t="s">
+      <c r="DG4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="DF4" s="10" t="s">
+      <c r="DH4" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="DG4" s="10" t="s">
+      <c r="DI4" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="DH4" s="10" t="s">
+      <c r="DJ4" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="DI4" s="10" t="s">
+      <c r="DK4" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="DJ4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="DK4" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="DL4" s="11" t="s">
-        <v>109</v>
+      <c r="DL4" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="DM4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="DN4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="DO4" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="DN4" s="11" t="s">
+      <c r="DP4" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="DO4" s="10" t="s">
+      <c r="DQ4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="DP4" s="11" t="s">
+      <c r="DR4" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="DQ4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="DR4" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="DS4" s="10" t="s">
         <v>87</v>
       </c>
       <c r="DT4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DU4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DV4" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="DU4" s="11" t="s">
+      <c r="DW4" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:127" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2515,159 +2541,155 @@
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
-      <c r="V5" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="W5" s="10" t="s">
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y5" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="Z5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="Y5" s="10" t="s">
+      <c r="AA5" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="AB5" s="11"/>
       <c r="AC5" s="10" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="AD5" s="11"/>
       <c r="AE5" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF5" s="11"/>
       <c r="AG5" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="AH5" s="10" t="s">
+      <c r="AJ5" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="10" t="s">
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="AL5" s="11"/>
-      <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
-      <c r="AO5" s="10" t="s">
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="AP5" s="11"/>
-      <c r="AQ5" s="11"/>
       <c r="AR5" s="11"/>
       <c r="AS5" s="11"/>
-      <c r="AT5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU5" s="10" t="s">
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW5" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AV5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW5" s="11"/>
       <c r="AX5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="AY5" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ5" s="10" t="s">
+      <c r="BA5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB5" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="BA5" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BB5" s="11"/>
       <c r="BC5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BD5" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE5" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="BF5" s="10" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="BG5" s="10" t="s">
         <v>148</v>
       </c>
       <c r="BH5" s="10" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="BI5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ5" s="11"/>
-      <c r="BK5" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="BJ5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK5" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="BL5" s="11"/>
-      <c r="BM5" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="BM5" s="11"/>
       <c r="BN5" s="11"/>
-      <c r="BO5" s="11"/>
+      <c r="BO5" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="BP5" s="11"/>
       <c r="BQ5" s="11"/>
-      <c r="BR5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BS5" s="10" t="s">
+      <c r="BR5" s="11"/>
+      <c r="BS5" s="11"/>
+      <c r="BT5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU5" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="BT5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BU5" s="11"/>
       <c r="BV5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW5" s="11"/>
+      <c r="BX5" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="BW5" s="10" t="s">
+      <c r="BY5" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="BX5" s="10" t="s">
+      <c r="BZ5" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="BY5" s="10" t="s">
+      <c r="CA5" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BZ5" s="10" t="s">
+      <c r="CB5" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="CA5" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="CB5" s="10" t="s">
+      <c r="CC5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD5" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="CC5" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="CD5" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="CE5" s="10" t="s">
         <v>87</v>
       </c>
       <c r="CF5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CG5" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="CG5" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="CH5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI5" s="11"/>
+      <c r="CJ5" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="CI5" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="CJ5" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="CK5" s="10" t="s">
         <v>148</v>
       </c>
@@ -2678,49 +2700,49 @@
         <v>148</v>
       </c>
       <c r="CN5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CO5" s="11"/>
-      <c r="CP5" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="CO5" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="CP5" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="CQ5" s="11"/>
-      <c r="CR5" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="CR5" s="11"/>
       <c r="CS5" s="11"/>
-      <c r="CT5" s="11"/>
+      <c r="CT5" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="CU5" s="11"/>
       <c r="CV5" s="11"/>
-      <c r="CW5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CX5" s="10" t="s">
+      <c r="CW5" s="11"/>
+      <c r="CX5" s="11"/>
+      <c r="CY5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CZ5" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="CY5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CZ5" s="11"/>
       <c r="DA5" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="DB5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="DB5" s="11"/>
+      <c r="DC5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DD5" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="DC5" s="10" t="s">
+      <c r="DE5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="DD5" s="10" t="s">
+      <c r="DF5" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="DE5" s="10" t="s">
+      <c r="DG5" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="DF5" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="DG5" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="DH5" s="10" t="s">
         <v>148</v>
       </c>
@@ -2728,35 +2750,41 @@
         <v>148</v>
       </c>
       <c r="DJ5" s="10" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="DK5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="DL5" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="DL5" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="DM5" s="10" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="DN5" s="11"/>
       <c r="DO5" s="10" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="DP5" s="11"/>
       <c r="DQ5" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="DR5" s="10" t="s">
-        <v>87</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="DR5" s="11"/>
       <c r="DS5" s="10" t="s">
         <v>87</v>
       </c>
       <c r="DT5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DU5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DV5" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="DU5" s="11"/>
+      <c r="DW5" s="11"/>
     </row>
-    <row r="6" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:127" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>155</v>
       </c>
@@ -2818,97 +2846,97 @@
         <v>88</v>
       </c>
       <c r="U6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="W6" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="V6" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="W6" s="10" t="s">
+      <c r="X6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="X6" s="10" t="s">
+      <c r="Z6" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="Y6" s="10" t="s">
+      <c r="AA6" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="Z6" s="11" t="s">
+      <c r="AB6" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="AA6" s="10" t="s">
+      <c r="AC6" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AB6" s="11" t="s">
+      <c r="AD6" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="AC6" s="10" t="s">
+      <c r="AE6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="AD6" s="11" t="s">
+      <c r="AF6" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AE6" s="10" t="s">
+      <c r="AG6" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="AF6" s="11" t="s">
+      <c r="AH6" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AG6" s="10" t="s">
+      <c r="AI6" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AH6" s="10" t="s">
+      <c r="AJ6" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="AI6" s="11" t="s">
+      <c r="AK6" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AJ6" s="11" t="s">
+      <c r="AL6" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AK6" s="10" t="s">
+      <c r="AM6" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="AL6" s="11" t="s">
+      <c r="AN6" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="AM6" s="11" t="s">
+      <c r="AO6" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="AN6" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO6" s="10" t="s">
+      <c r="AP6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ6" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="AP6" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ6" s="11" t="s">
+      <c r="AR6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS6" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="AR6" s="11" t="s">
+      <c r="AT6" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AS6" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU6" s="10" t="s">
+      <c r="AU6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW6" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AV6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW6" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="AX6" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY6" s="10" t="s">
-        <v>87</v>
+        <v>109</v>
+      </c>
+      <c r="AY6" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="AZ6" s="10" t="s">
         <v>87</v>
@@ -2916,224 +2944,230 @@
       <c r="BA6" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="BB6" s="11" t="s">
+      <c r="BB6" s="10" t="s">
         <v>87</v>
       </c>
       <c r="BC6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE6" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BD6" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE6" s="10" t="s">
+      <c r="BF6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG6" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="BF6" s="10" t="s">
+      <c r="BH6" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="BG6" s="10" t="s">
+      <c r="BI6" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="BH6" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ6" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="BK6" s="11" t="s">
+      <c r="BJ6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BL6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BM6" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="BL6" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM6" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="BN6" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BO6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BP6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ6" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="BP6" s="11" t="s">
+      <c r="BR6" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="BQ6" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="BR6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BS6" s="10" t="s">
+      <c r="BS6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU6" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="BT6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BU6" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="BV6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX6" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="BW6" s="10" t="s">
+      <c r="BY6" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="BX6" s="10" t="s">
+      <c r="BZ6" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="BY6" s="10" t="s">
+      <c r="CA6" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="BZ6" s="10" t="s">
+      <c r="CB6" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="CA6" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="CB6" s="10" t="s">
+      <c r="CC6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD6" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="CC6" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="CD6" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="CE6" s="10" t="s">
         <v>87</v>
       </c>
       <c r="CF6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CG6" s="11" t="s">
-        <v>109</v>
+        <v>87</v>
+      </c>
+      <c r="CG6" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="CH6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CJ6" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="CI6" s="10" t="s">
+      <c r="CK6" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="CJ6" s="10" t="s">
+      <c r="CL6" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="CK6" s="10" t="s">
+      <c r="CM6" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="CL6" s="10" t="s">
+      <c r="CN6" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="CM6" s="10" t="s">
+      <c r="CO6" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="CN6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CO6" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="CP6" s="11" t="s">
+      <c r="CP6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CQ6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CR6" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="CQ6" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="CR6" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="CS6" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="CT6" s="11" t="s">
-        <v>129</v>
+        <v>109</v>
+      </c>
+      <c r="CT6" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="CU6" s="11" t="s">
         <v>128</v>
       </c>
       <c r="CV6" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="CW6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CX6" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CW6" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="CX6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CY6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CZ6" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="CY6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CZ6" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="DA6" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="DB6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="DB6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="DC6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DD6" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="DC6" s="10" t="s">
+      <c r="DE6" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="DD6" s="10" t="s">
+      <c r="DF6" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="DE6" s="10" t="s">
+      <c r="DG6" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="DF6" s="10" t="s">
+      <c r="DH6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="DG6" s="10" t="s">
+      <c r="DI6" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="DH6" s="10" t="s">
+      <c r="DJ6" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="DI6" s="10" t="s">
+      <c r="DK6" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="DJ6" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="DK6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="DL6" s="11" t="s">
-        <v>109</v>
+      <c r="DL6" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="DM6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="DN6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="DO6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="DN6" s="11" t="s">
+      <c r="DP6" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="DO6" s="10" t="s">
+      <c r="DQ6" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="DP6" s="11" t="s">
+      <c r="DR6" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="DQ6" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="DR6" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="DS6" s="10" t="s">
         <v>87</v>
       </c>
       <c r="DT6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DU6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DV6" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="DU6" s="11" t="s">
+      <c r="DW6" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:127" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -3157,159 +3191,155 @@
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
-      <c r="V7" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="W7" s="10" t="s">
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="X7" s="10" t="s">
+      <c r="Z7" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="Y7" s="10" t="s">
+      <c r="AA7" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="AB7" s="11"/>
       <c r="AC7" s="10" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="AD7" s="11"/>
       <c r="AE7" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF7" s="11"/>
       <c r="AG7" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="AH7" s="10" t="s">
+      <c r="AJ7" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="10" t="s">
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
       <c r="AN7" s="11"/>
-      <c r="AO7" s="10" t="s">
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
       <c r="AR7" s="11"/>
       <c r="AS7" s="11"/>
-      <c r="AT7" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU7" s="10" t="s">
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW7" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AV7" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW7" s="11"/>
       <c r="AX7" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY7" s="10" t="s">
-        <v>87</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="AY7" s="11"/>
       <c r="AZ7" s="10" t="s">
         <v>87</v>
       </c>
       <c r="BA7" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="BB7" s="11"/>
+      <c r="BB7" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="BC7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD7" s="11"/>
+      <c r="BE7" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BD7" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE7" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="BF7" s="10" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="BG7" s="10" t="s">
         <v>148</v>
       </c>
       <c r="BH7" s="10" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="BI7" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ7" s="11"/>
-      <c r="BK7" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="BJ7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK7" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="BL7" s="11"/>
-      <c r="BM7" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="BM7" s="11"/>
       <c r="BN7" s="11"/>
-      <c r="BO7" s="11"/>
+      <c r="BO7" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="BP7" s="11"/>
       <c r="BQ7" s="11"/>
-      <c r="BR7" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BS7" s="10" t="s">
+      <c r="BR7" s="11"/>
+      <c r="BS7" s="11"/>
+      <c r="BT7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU7" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="BT7" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BU7" s="11"/>
       <c r="BV7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW7" s="11"/>
+      <c r="BX7" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="BW7" s="10" t="s">
+      <c r="BY7" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="BX7" s="10" t="s">
+      <c r="BZ7" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="BY7" s="10" t="s">
+      <c r="CA7" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BZ7" s="10" t="s">
+      <c r="CB7" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="CA7" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="CB7" s="10" t="s">
+      <c r="CC7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD7" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="CC7" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="CD7" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="CE7" s="10" t="s">
         <v>87</v>
       </c>
       <c r="CF7" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CG7" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="CG7" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="CH7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI7" s="11"/>
+      <c r="CJ7" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="CI7" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="CJ7" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="CK7" s="10" t="s">
         <v>148</v>
       </c>
@@ -3320,49 +3350,49 @@
         <v>148</v>
       </c>
       <c r="CN7" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CO7" s="11"/>
-      <c r="CP7" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="CO7" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="CP7" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="CQ7" s="11"/>
-      <c r="CR7" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="CR7" s="11"/>
       <c r="CS7" s="11"/>
-      <c r="CT7" s="11"/>
+      <c r="CT7" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="CU7" s="11"/>
       <c r="CV7" s="11"/>
-      <c r="CW7" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CX7" s="10" t="s">
+      <c r="CW7" s="11"/>
+      <c r="CX7" s="11"/>
+      <c r="CY7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CZ7" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="CY7" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CZ7" s="11"/>
       <c r="DA7" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="DB7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="DB7" s="11"/>
+      <c r="DC7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DD7" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="DC7" s="10" t="s">
+      <c r="DE7" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="DD7" s="10" t="s">
+      <c r="DF7" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="DE7" s="10" t="s">
+      <c r="DG7" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="DF7" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="DG7" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="DH7" s="10" t="s">
         <v>148</v>
       </c>
@@ -3370,35 +3400,41 @@
         <v>148</v>
       </c>
       <c r="DJ7" s="10" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="DK7" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="DL7" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="DL7" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="DM7" s="10" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="DN7" s="11"/>
       <c r="DO7" s="10" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="DP7" s="11"/>
       <c r="DQ7" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="DR7" s="10" t="s">
-        <v>87</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="DR7" s="11"/>
       <c r="DS7" s="10" t="s">
         <v>87</v>
       </c>
       <c r="DT7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DU7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DV7" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="DU7" s="11"/>
+      <c r="DW7" s="11"/>
     </row>
-    <row r="8" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:127" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>178</v>
       </c>
@@ -3460,322 +3496,328 @@
         <v>88</v>
       </c>
       <c r="U8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="W8" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="V8" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="W8" s="10" t="s">
+      <c r="X8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="X8" s="10" t="s">
+      <c r="Z8" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="Y8" s="10" t="s">
+      <c r="AA8" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="Z8" s="11" t="s">
+      <c r="AB8" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="AA8" s="10" t="s">
+      <c r="AC8" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AB8" s="11" t="s">
+      <c r="AD8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="AC8" s="10" t="s">
+      <c r="AE8" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="AD8" s="11" t="s">
+      <c r="AF8" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AE8" s="10" t="s">
+      <c r="AG8" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="AF8" s="11" t="s">
+      <c r="AH8" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AG8" s="10" t="s">
+      <c r="AI8" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AH8" s="10" t="s">
+      <c r="AJ8" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="AI8" s="11" t="s">
+      <c r="AK8" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AJ8" s="11" t="s">
+      <c r="AL8" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AK8" s="10" t="s">
+      <c r="AM8" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="AL8" s="11" t="s">
+      <c r="AN8" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="AM8" s="11" t="s">
+      <c r="AO8" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="AN8" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO8" s="10" t="s">
+      <c r="AP8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ8" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="AP8" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ8" s="11" t="s">
+      <c r="AR8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS8" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="AR8" s="11" t="s">
+      <c r="AT8" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="AS8" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU8" s="10" t="s">
+      <c r="AU8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW8" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AV8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW8" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="AX8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ8" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="AY8" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ8" s="10" t="s">
+      <c r="BA8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB8" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="BA8" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BB8" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="BC8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE8" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BD8" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE8" s="10" t="s">
+      <c r="BF8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG8" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="BF8" s="10" t="s">
+      <c r="BH8" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="BG8" s="10" t="s">
+      <c r="BI8" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="BH8" s="10" t="s">
+      <c r="BJ8" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="BI8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ8" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="BK8" s="11" t="s">
+      <c r="BK8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BL8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BM8" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="BL8" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM8" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="BN8" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="BO8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BO8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BP8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ8" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="BP8" s="11" t="s">
+      <c r="BR8" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="BQ8" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="BR8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BS8" s="10" t="s">
+      <c r="BS8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU8" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="BT8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BU8" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="BV8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX8" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="BW8" s="10" t="s">
+      <c r="BY8" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="BX8" s="10" t="s">
+      <c r="BZ8" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="BY8" s="10" t="s">
+      <c r="CA8" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="BZ8" s="10" t="s">
+      <c r="CB8" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="CA8" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="CB8" s="10" t="s">
+      <c r="CC8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD8" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="CC8" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="CD8" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="CE8" s="10" t="s">
         <v>87</v>
       </c>
       <c r="CF8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CG8" s="11" t="s">
-        <v>109</v>
+        <v>87</v>
+      </c>
+      <c r="CG8" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="CH8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CJ8" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="CI8" s="10" t="s">
+      <c r="CK8" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="CJ8" s="10" t="s">
+      <c r="CL8" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="CK8" s="10" t="s">
+      <c r="CM8" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="CL8" s="10" t="s">
+      <c r="CN8" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="CM8" s="10" t="s">
+      <c r="CO8" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="CN8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CO8" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="CP8" s="11" t="s">
+      <c r="CP8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CQ8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CR8" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="CQ8" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="CR8" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="CS8" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="CT8" s="11" t="s">
-        <v>129</v>
+        <v>109</v>
+      </c>
+      <c r="CT8" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="CU8" s="11" t="s">
         <v>128</v>
       </c>
       <c r="CV8" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="CW8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CX8" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CW8" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="CX8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="CY8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CZ8" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="CY8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CZ8" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="DA8" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="DB8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="DB8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="DC8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DD8" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="DC8" s="10" t="s">
+      <c r="DE8" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="DD8" s="10" t="s">
+      <c r="DF8" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="DE8" s="10" t="s">
+      <c r="DG8" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="DF8" s="10" t="s">
+      <c r="DH8" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="DG8" s="10" t="s">
+      <c r="DI8" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="DH8" s="10" t="s">
+      <c r="DJ8" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="DI8" s="10" t="s">
+      <c r="DK8" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="DJ8" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="DK8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="DL8" s="11" t="s">
-        <v>109</v>
+      <c r="DL8" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="DM8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="DN8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="DO8" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="DN8" s="11" t="s">
+      <c r="DP8" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="DO8" s="10" t="s">
+      <c r="DQ8" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="DP8" s="11" t="s">
+      <c r="DR8" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="DQ8" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="DR8" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="DS8" s="10" t="s">
         <v>87</v>
       </c>
       <c r="DT8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DU8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DV8" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="DU8" s="11" t="s">
+      <c r="DW8" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:127" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -3799,159 +3841,155 @@
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
-      <c r="V9" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="W9" s="10" t="s">
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y9" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="X9" s="10" t="s">
+      <c r="Z9" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="Y9" s="10" t="s">
+      <c r="AA9" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="AB9" s="11"/>
       <c r="AC9" s="10" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="AD9" s="11"/>
       <c r="AE9" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF9" s="11"/>
       <c r="AG9" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="AH9" s="10" t="s">
+      <c r="AJ9" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="11"/>
-      <c r="AK9" s="10" t="s">
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="11"/>
       <c r="AN9" s="11"/>
-      <c r="AO9" s="10" t="s">
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="AP9" s="11"/>
-      <c r="AQ9" s="11"/>
       <c r="AR9" s="11"/>
       <c r="AS9" s="11"/>
-      <c r="AT9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU9" s="10" t="s">
+      <c r="AT9" s="11"/>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW9" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AV9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW9" s="11"/>
       <c r="AX9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="AY9" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ9" s="10" t="s">
+      <c r="BA9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB9" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="BA9" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BB9" s="11"/>
       <c r="BC9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD9" s="11"/>
+      <c r="BE9" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BD9" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE9" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="BF9" s="10" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="BG9" s="10" t="s">
         <v>148</v>
       </c>
       <c r="BH9" s="10" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="BI9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ9" s="11"/>
-      <c r="BK9" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="BJ9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK9" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="BL9" s="11"/>
-      <c r="BM9" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="BM9" s="11"/>
       <c r="BN9" s="11"/>
-      <c r="BO9" s="11"/>
+      <c r="BO9" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="BP9" s="11"/>
       <c r="BQ9" s="11"/>
-      <c r="BR9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BS9" s="10" t="s">
+      <c r="BR9" s="11"/>
+      <c r="BS9" s="11"/>
+      <c r="BT9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU9" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="BT9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BU9" s="11"/>
       <c r="BV9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW9" s="11"/>
+      <c r="BX9" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="BW9" s="10" t="s">
+      <c r="BY9" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="BX9" s="10" t="s">
+      <c r="BZ9" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="BY9" s="10" t="s">
+      <c r="CA9" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BZ9" s="10" t="s">
+      <c r="CB9" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="CA9" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="CB9" s="10" t="s">
+      <c r="CC9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD9" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="CC9" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="CD9" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="CE9" s="10" t="s">
         <v>87</v>
       </c>
       <c r="CF9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CG9" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="CG9" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="CH9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI9" s="11"/>
+      <c r="CJ9" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="CI9" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="CJ9" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="CK9" s="10" t="s">
         <v>148</v>
       </c>
@@ -3962,49 +4000,49 @@
         <v>148</v>
       </c>
       <c r="CN9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CO9" s="11"/>
-      <c r="CP9" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="CO9" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="CP9" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="CQ9" s="11"/>
-      <c r="CR9" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="CR9" s="11"/>
       <c r="CS9" s="11"/>
-      <c r="CT9" s="11"/>
+      <c r="CT9" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="CU9" s="11"/>
       <c r="CV9" s="11"/>
-      <c r="CW9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CX9" s="10" t="s">
+      <c r="CW9" s="11"/>
+      <c r="CX9" s="11"/>
+      <c r="CY9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="CZ9" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="CY9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="CZ9" s="11"/>
       <c r="DA9" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="DB9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="DB9" s="11"/>
+      <c r="DC9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DD9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="DC9" s="10" t="s">
+      <c r="DE9" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="DD9" s="10" t="s">
+      <c r="DF9" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="DE9" s="10" t="s">
+      <c r="DG9" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="DF9" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="DG9" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="DH9" s="10" t="s">
         <v>148</v>
       </c>
@@ -4012,72 +4050,218 @@
         <v>148</v>
       </c>
       <c r="DJ9" s="10" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="DK9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="DL9" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="DL9" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="DM9" s="10" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="DN9" s="11"/>
       <c r="DO9" s="10" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="DP9" s="11"/>
       <c r="DQ9" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="DR9" s="10" t="s">
-        <v>87</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="DR9" s="11"/>
       <c r="DS9" s="10" t="s">
         <v>87</v>
       </c>
       <c r="DT9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DU9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DV9" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="DU9" s="11"/>
+      <c r="DW9" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="224">
-    <mergeCell ref="CU8:CU9"/>
-    <mergeCell ref="CV8:CV9"/>
-    <mergeCell ref="CZ8:CZ9"/>
-    <mergeCell ref="DL8:DL9"/>
-    <mergeCell ref="DN8:DN9"/>
-    <mergeCell ref="DP8:DP9"/>
-    <mergeCell ref="DU8:DU9"/>
-    <mergeCell ref="BP8:BP9"/>
-    <mergeCell ref="BQ8:BQ9"/>
-    <mergeCell ref="BU8:BU9"/>
-    <mergeCell ref="CG8:CG9"/>
-    <mergeCell ref="CO8:CO9"/>
-    <mergeCell ref="CP8:CP9"/>
-    <mergeCell ref="CQ8:CQ9"/>
-    <mergeCell ref="CS8:CS9"/>
-    <mergeCell ref="CT8:CT9"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AS8:AS9"/>
-    <mergeCell ref="AW8:AW9"/>
-    <mergeCell ref="BB8:BB9"/>
-    <mergeCell ref="BJ8:BJ9"/>
-    <mergeCell ref="BK8:BK9"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="BN8:BN9"/>
-    <mergeCell ref="BO8:BO9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
+  <mergeCells count="232">
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="CX4:CX5"/>
+    <mergeCell ref="DB4:DB5"/>
+    <mergeCell ref="DN4:DN5"/>
+    <mergeCell ref="DP4:DP5"/>
+    <mergeCell ref="DR4:DR5"/>
+    <mergeCell ref="DW4:DW5"/>
+    <mergeCell ref="CQ4:CQ5"/>
+    <mergeCell ref="CR4:CR5"/>
+    <mergeCell ref="CS4:CS5"/>
+    <mergeCell ref="CU4:CU5"/>
+    <mergeCell ref="CV4:CV5"/>
+    <mergeCell ref="CW4:CW5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="BW4:BW5"/>
+    <mergeCell ref="CI4:CI5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AY4:AY5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="DR2:DR3"/>
+    <mergeCell ref="DW2:DW3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="CV2:CV3"/>
+    <mergeCell ref="CW2:CW3"/>
+    <mergeCell ref="CX2:CX3"/>
+    <mergeCell ref="DB2:DB3"/>
+    <mergeCell ref="DN2:DN3"/>
+    <mergeCell ref="DP2:DP3"/>
+    <mergeCell ref="BW2:BW3"/>
+    <mergeCell ref="CI2:CI3"/>
+    <mergeCell ref="CQ2:CQ3"/>
+    <mergeCell ref="CR2:CR3"/>
+    <mergeCell ref="CS2:CS3"/>
+    <mergeCell ref="CU2:CU3"/>
+    <mergeCell ref="BM2:BM3"/>
+    <mergeCell ref="BN2:BN3"/>
+    <mergeCell ref="BP2:BP3"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="BS2:BS3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="AR6:AR7"/>
+    <mergeCell ref="AS6:AS7"/>
+    <mergeCell ref="AT6:AT7"/>
+    <mergeCell ref="AU6:AU7"/>
+    <mergeCell ref="AY6:AY7"/>
+    <mergeCell ref="BD6:BD7"/>
+    <mergeCell ref="BL6:BL7"/>
+    <mergeCell ref="BM6:BM7"/>
+    <mergeCell ref="BN6:BN7"/>
+    <mergeCell ref="BP6:BP7"/>
+    <mergeCell ref="BQ6:BQ7"/>
+    <mergeCell ref="BR6:BR7"/>
+    <mergeCell ref="BS6:BS7"/>
+    <mergeCell ref="BW6:BW7"/>
+    <mergeCell ref="CI6:CI7"/>
+    <mergeCell ref="CQ6:CQ7"/>
+    <mergeCell ref="CR6:CR7"/>
+    <mergeCell ref="CS6:CS7"/>
+    <mergeCell ref="CU6:CU7"/>
+    <mergeCell ref="CV6:CV7"/>
+    <mergeCell ref="CW6:CW7"/>
+    <mergeCell ref="CX6:CX7"/>
+    <mergeCell ref="DB6:DB7"/>
+    <mergeCell ref="DN6:DN7"/>
     <mergeCell ref="DP6:DP7"/>
-    <mergeCell ref="DU6:DU7"/>
+    <mergeCell ref="DR6:DR7"/>
+    <mergeCell ref="DW6:DW7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -4097,175 +4281,43 @@
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="S8:S9"/>
     <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="W8:W9"/>
     <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="CP6:CP7"/>
-    <mergeCell ref="CQ6:CQ7"/>
-    <mergeCell ref="CS6:CS7"/>
-    <mergeCell ref="CT6:CT7"/>
-    <mergeCell ref="CU6:CU7"/>
-    <mergeCell ref="CV6:CV7"/>
-    <mergeCell ref="CZ6:CZ7"/>
-    <mergeCell ref="DL6:DL7"/>
-    <mergeCell ref="DN6:DN7"/>
-    <mergeCell ref="BK6:BK7"/>
-    <mergeCell ref="BL6:BL7"/>
-    <mergeCell ref="BN6:BN7"/>
-    <mergeCell ref="BO6:BO7"/>
-    <mergeCell ref="BP6:BP7"/>
-    <mergeCell ref="BQ6:BQ7"/>
-    <mergeCell ref="BU6:BU7"/>
-    <mergeCell ref="CG6:CG7"/>
-    <mergeCell ref="CO6:CO7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AR6:AR7"/>
-    <mergeCell ref="AS6:AS7"/>
-    <mergeCell ref="AW6:AW7"/>
-    <mergeCell ref="BB6:BB7"/>
-    <mergeCell ref="BJ6:BJ7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="BN2:BN3"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="BP2:BP3"/>
-    <mergeCell ref="BQ2:BQ3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="DP2:DP3"/>
-    <mergeCell ref="DU2:DU3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="CT2:CT3"/>
-    <mergeCell ref="CU2:CU3"/>
-    <mergeCell ref="CV2:CV3"/>
-    <mergeCell ref="CZ2:CZ3"/>
-    <mergeCell ref="DL2:DL3"/>
-    <mergeCell ref="DN2:DN3"/>
-    <mergeCell ref="BU2:BU3"/>
-    <mergeCell ref="CG2:CG3"/>
-    <mergeCell ref="CO2:CO3"/>
-    <mergeCell ref="CP2:CP3"/>
-    <mergeCell ref="CQ2:CQ3"/>
-    <mergeCell ref="CS2:CS3"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="CG4:CG5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="CV4:CV5"/>
-    <mergeCell ref="CZ4:CZ5"/>
-    <mergeCell ref="DL4:DL5"/>
-    <mergeCell ref="DN4:DN5"/>
-    <mergeCell ref="DP4:DP5"/>
-    <mergeCell ref="DU4:DU5"/>
-    <mergeCell ref="CO4:CO5"/>
-    <mergeCell ref="CP4:CP5"/>
-    <mergeCell ref="CQ4:CQ5"/>
-    <mergeCell ref="CS4:CS5"/>
-    <mergeCell ref="CT4:CT5"/>
-    <mergeCell ref="CU4:CU5"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AU8:AU9"/>
+    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="BD8:BD9"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BM8:BM9"/>
+    <mergeCell ref="BN8:BN9"/>
+    <mergeCell ref="BP8:BP9"/>
+    <mergeCell ref="BQ8:BQ9"/>
+    <mergeCell ref="CW8:CW9"/>
+    <mergeCell ref="CX8:CX9"/>
+    <mergeCell ref="DB8:DB9"/>
+    <mergeCell ref="DN8:DN9"/>
+    <mergeCell ref="DP8:DP9"/>
+    <mergeCell ref="DR8:DR9"/>
+    <mergeCell ref="DW8:DW9"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="BS8:BS9"/>
+    <mergeCell ref="BW8:BW9"/>
+    <mergeCell ref="CI8:CI9"/>
+    <mergeCell ref="CQ8:CQ9"/>
+    <mergeCell ref="CR8:CR9"/>
+    <mergeCell ref="CS8:CS9"/>
+    <mergeCell ref="CU8:CU9"/>
+    <mergeCell ref="CV8:CV9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{576E9C39-BFA5-4024-9577-CB4F2808683F}"/>
